--- a/data/trans_media/Q33-Provincia-trans_media.xlsx
+++ b/data/trans_media/Q33-Provincia-trans_media.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,56; 7,81</t>
+          <t>7,55; 7,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,0; 7,33</t>
+          <t>7,03; 7,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,3; 7,59</t>
+          <t>7,31; 7,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -759,12 +759,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,83; 7,04</t>
+          <t>6,82; 7,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,47; 7,66</t>
+          <t>7,46; 7,67</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,98; 7,22</t>
+          <t>6,99; 7,22</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,94; 7,12</t>
+          <t>6,94; 7,14</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,29; 7,51</t>
+          <t>7,29; 7,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,32; 7,59</t>
+          <t>7,31; 7,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,31; 7,52</t>
+          <t>7,3; 7,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,14; 7,41</t>
+          <t>7,14; 7,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,06; 7,31</t>
+          <t>7,06; 7,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,18; 7,43</t>
+          <t>7,15; 7,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,98; 7,19</t>
+          <t>6,96; 7,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,18; 7,39</t>
+          <t>7,18; 7,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,2; 7,37</t>
+          <t>7,21; 7,37</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,28; 7,45</t>
+          <t>7,28; 7,46</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,16; 7,32</t>
+          <t>7,17; 7,32</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,2; 7,37</t>
+          <t>7,19; 7,37</t>
         </is>
       </c>
     </row>
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,54; 7,76</t>
+          <t>7,55; 7,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,3; 7,62</t>
+          <t>7,31; 7,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,97; 7,22</t>
+          <t>6,96; 7,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,12 +1029,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,14; 7,42</t>
+          <t>7,13; 7,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,14; 7,35</t>
+          <t>7,15; 7,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,12 +1044,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,4; 7,55</t>
+          <t>7,39; 7,55</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,26; 7,47</t>
+          <t>7,25; 7,45</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,94; 7,1</t>
+          <t>6,93; 7,11</t>
         </is>
       </c>
     </row>
@@ -1144,27 +1144,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,33; 7,55</t>
+          <t>7,33; 7,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,14; 7,35</t>
+          <t>7,14; 7,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,03; 7,31</t>
+          <t>7,03; 7,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,92; 7,24</t>
+          <t>6,93; 7,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,26; 7,47</t>
+          <t>7,26; 7,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1174,17 +1174,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,83; 7,14</t>
+          <t>6,81; 7,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,83; 7,09</t>
+          <t>6,83; 7,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,33; 7,48</t>
+          <t>7,34; 7,48</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,97; 7,18</t>
+          <t>6,96; 7,18</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,44; 7,78</t>
+          <t>7,44; 7,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1294,27 +1294,27 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,43; 7,65</t>
+          <t>7,43; 7,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,69; 6,92</t>
+          <t>6,68; 6,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,41; 7,78</t>
+          <t>7,42; 7,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,88; 7,25</t>
+          <t>6,86; 7,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,47; 7,68</t>
+          <t>7,46; 7,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,49; 7,74</t>
+          <t>7,48; 7,73</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,07; 7,33</t>
+          <t>7,07; 7,32</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,48; 7,63</t>
+          <t>7,47; 7,63</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,49; 7,7</t>
+          <t>7,48; 7,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,25; 7,53</t>
+          <t>7,25; 7,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,37; 7,65</t>
+          <t>7,35; 7,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,9; 7,14</t>
+          <t>6,91; 7,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,1; 7,35</t>
+          <t>7,08; 7,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,06; 7,37</t>
+          <t>7,05; 7,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,02; 7,32</t>
+          <t>7,01; 7,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,71; 6,96</t>
+          <t>6,7; 6,95</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,32; 7,5</t>
+          <t>7,31; 7,5</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,21; 7,41</t>
+          <t>7,2; 7,41</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,22; 7,44</t>
+          <t>7,21; 7,44</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,84; 7,02</t>
+          <t>6,84; 7,0</t>
         </is>
       </c>
     </row>
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,52; 7,68</t>
+          <t>7,51; 7,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,28; 7,46</t>
+          <t>7,28; 7,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,88; 7,08</t>
+          <t>6,87; 7,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,24; 7,43</t>
+          <t>7,25; 7,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,11; 7,31</t>
+          <t>7,12; 7,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,49; 6,94</t>
+          <t>6,51; 6,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,65; 6,97</t>
+          <t>6,64; 6,96</t>
         </is>
       </c>
     </row>
@@ -1704,12 +1704,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,42; 7,58</t>
+          <t>7,42; 7,59</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,4; 7,58</t>
+          <t>7,41; 7,58</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1719,17 +1719,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,44; 7,85</t>
+          <t>7,43; 7,83</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,5; 7,69</t>
+          <t>7,52; 7,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,21; 7,37</t>
+          <t>7,22; 7,38</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,3; 7,41</t>
+          <t>7,3; 7,42</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,49; 7,61</t>
+          <t>7,49; 7,62</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>7,39; 7,61</t>
+          <t>7,39; 7,63</t>
         </is>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7,35; 7,44</t>
+          <t>7,34; 7,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1859,17 +1859,17 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,14; 7,31</t>
+          <t>7,15; 7,3</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,35; 7,43</t>
+          <t>7,36; 7,44</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>7,14; 7,22</t>
+          <t>7,14; 7,23</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1879,27 +1879,27 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,9; 7,07</t>
+          <t>6,91; 7,06</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,43; 7,49</t>
+          <t>7,44; 7,5</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>7,26; 7,32</t>
+          <t>7,25; 7,32</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>7,32; 7,39</t>
+          <t>7,33; 7,39</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>7,05; 7,15</t>
+          <t>7,04; 7,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/Q33-Provincia-trans_media.xlsx
+++ b/data/trans_media/Q33-Provincia-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,03; 7,34</t>
+          <t>7,01; 7,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,31; 7,59</t>
+          <t>7,32; 7,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,84; 7,19</t>
+          <t>6,83; 7,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,46; 7,67</t>
+          <t>7,48; 7,67</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,99; 7,22</t>
+          <t>6,98; 7,21</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,29; 7,5</t>
+          <t>7,28; 7,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,3; 7,52</t>
+          <t>7,31; 7,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,12 +884,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,06; 7,3</t>
+          <t>7,07; 7,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,15; 7,41</t>
+          <t>7,16; 7,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,21; 7,37</t>
+          <t>7,21; 7,38</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,28; 7,46</t>
+          <t>7,28; 7,47</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,55; 7,74</t>
+          <t>7,55; 7,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,31; 7,62</t>
+          <t>7,32; 7,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,33; 7,51</t>
+          <t>7,34; 7,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,15; 7,36</t>
+          <t>7,14; 7,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,12 +1044,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,39; 7,55</t>
+          <t>7,4; 7,55</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,25; 7,45</t>
+          <t>7,26; 7,46</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,33; 7,54</t>
+          <t>7,31; 7,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,14; 7,36</t>
+          <t>7,14; 7,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,03; 7,32</t>
+          <t>7,03; 7,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,26; 7,46</t>
+          <t>7,27; 7,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,8; 7,03</t>
+          <t>6,79; 7,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,81; 7,13</t>
+          <t>6,82; 7,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,44; 7,8</t>
+          <t>7,42; 7,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,16; 7,52</t>
+          <t>7,17; 7,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,42; 7,78</t>
+          <t>7,41; 7,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,86; 7,25</t>
+          <t>6,88; 7,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,46; 7,67</t>
+          <t>7,46; 7,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1329,12 +1329,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,07; 7,32</t>
+          <t>7,06; 7,32</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,47; 7,63</t>
+          <t>7,48; 7,63</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,35; 7,64</t>
+          <t>7,37; 7,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,08; 7,37</t>
+          <t>7,09; 7,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,05; 7,36</t>
+          <t>7,06; 7,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,01; 7,34</t>
+          <t>6,98; 7,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,31; 7,5</t>
+          <t>7,32; 7,49</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,21; 7,44</t>
+          <t>7,22; 7,44</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,51; 7,67</t>
+          <t>7,51; 7,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,28; 7,45</t>
+          <t>7,27; 7,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,55; 7,77</t>
+          <t>7,54; 7,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,12; 7,32</t>
+          <t>7,11; 7,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7,22; 7,35</t>
+          <t>7,22; 7,36</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,42; 7,59</t>
+          <t>7,42; 7,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,51; 7,67</t>
+          <t>7,51; 7,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,52; 7,7</t>
+          <t>7,51; 7,69</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,22; 7,38</t>
+          <t>7,21; 7,37</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,26; 7,41</t>
+          <t>7,25; 7,42</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,49; 7,62</t>
+          <t>7,49; 7,61</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7,34; 7,44</t>
+          <t>7,35; 7,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,36; 7,44</t>
+          <t>7,35; 7,43</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,44; 7,5</t>
+          <t>7,44; 7,49</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
@@ -1894,7 +1894,7 @@
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>7,33; 7,39</t>
+          <t>7,32; 7,39</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
